--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T15:19:04+00:00</t>
+    <t>2025-01-12T13:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T13:05:41+00:00</t>
+    <t>2025-01-12T14:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,19 +57,22 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T14:01:50+00:00</t>
+    <t>2025-01-17T08:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI)</t>
+    <t>Folkehelseinstituttet</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
+    <t>Folkehelseinstituttet (https://www.fhi.no)</t>
+  </si>
+  <si>
+    <t>Legemiddelregisteret (legemiddelregisteret@fhi.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -284,7 +287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -374,25 +377,27 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -434,22 +439,28 @@
       <c r="A20" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>31</v>
-      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>34</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -467,44 +478,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T08:31:13+00:00</t>
+    <t>2025-01-27T14:21:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T14:21:49+00:00</t>
+    <t>2025-01-28T15:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T15:15:07+00:00</t>
+    <t>2025-01-30T10:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T10:14:07+00:00</t>
+    <t>2025-02-04T14:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:35:28+00:00</t>
+    <t>2025-02-10T09:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:13:37+00:00</t>
+    <t>2025-02-10T13:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T13:00:17+00:00</t>
+    <t>2025-02-10T13:38:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T13:38:57+00:00</t>
+    <t>2025-02-11T10:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T10:50:05+00:00</t>
+    <t>2025-02-11T10:57:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T10:57:33+00:00</t>
+    <t>2025-02-11T11:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T11:02:00+00:00</t>
+    <t>2025-02-11T11:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T11:10:12+00:00</t>
+    <t>2025-02-11T11:18:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T11:18:14+00:00</t>
+    <t>2025-02-13T14:32:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T14:32:56+00:00</t>
+    <t>2025-02-13T20:25:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T20:25:16+00:00</t>
+    <t>2025-02-13T20:33:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,22 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T20:33:54+00:00</t>
+    <t>2025-02-14T08:44:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet</t>
+    <t>Folkehelseinstituttet (FHI)</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (https://www.fhi.no)</t>
-  </si>
-  <si>
-    <t>Legemiddelregisteret (legemiddelregisteret@fhi.no)</t>
+    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -287,7 +284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -377,27 +374,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -439,28 +434,22 @@
       <c r="A20" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>32</v>
       </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="B22" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -478,44 +467,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>38</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="D3" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,19 +57,22 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-14T08:44:20+00:00</t>
+    <t>2025-02-14T09:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI)</t>
+    <t>Folkehelseinstituttet</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
+    <t>Folkehelseinstituttet (https://www.fhi.no)</t>
+  </si>
+  <si>
+    <t>Legemiddelregisteret (legemiddelregisteret@fhi.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -284,7 +287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -374,25 +377,27 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -434,22 +439,28 @@
       <c r="A20" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>31</v>
-      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>34</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -467,44 +478,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T13:24:00+00:00</t>
+    <t>2025-02-17T15:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T15:42:31+00:00</t>
+    <t>2025-02-17T16:04:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T16:04:38+00:00</t>
+    <t>2025-02-24T10:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-26T09:39:57+00:00</t>
+    <t>2025-03-03T07:55:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T07:55:06+00:00</t>
+    <t>2025-03-03T11:19:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T11:19:34+00:00</t>
+    <t>2025-03-03T13:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T13:58:27+00:00</t>
+    <t>2025-03-03T14:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T14:46:13+00:00</t>
+    <t>2025-03-11T13:51:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T13:51:40+00:00</t>
+    <t>2025-03-11T14:01:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T14:01:39+00:00</t>
+    <t>2025-03-12T08:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T08:49:17+00:00</t>
+    <t>2025-03-12T09:16:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
+++ b/currentbuild/CodeSystem-LokalLegemiddelkatalogCodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T09:16:28+00:00</t>
+    <t>2025-03-18T14:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
